--- a/Research Data.xlsx
+++ b/Research Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://deakin365-my.sharepoint.com/personal/s223080241_deakin_edu_au/Documents/Progress meeting docs/M24-14-05/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://deakin365-my.sharepoint.com/personal/s223080241_deakin_edu_au/Documents/Progress meeting docs/M57-28-01/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1654" documentId="11_F25DC773A252ABDACC1048F5C91E6B0C5ADE590B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC3ABB20-044F-4AD5-9728-5EFAF7C18F4D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{853CF6BF-B8CA-46C6-A220-5B0792CF64D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="782">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="804">
   <si>
     <t>Title</t>
   </si>
@@ -5279,6 +5279,114 @@
   <si>
     <t>TasRec: A Framework for Task Recommendation in
 Crowdsourcing</t>
+  </si>
+  <si>
+    <t>Multi-objective optimization and integrated indicator-
+driven two-stage project recommendation in time-
+dependent software ecosystem</t>
+  </si>
+  <si>
+    <t>CodeCompass: NLP-Driven Navigation to Optimal Repositories</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sheetal Phatangare, Aakash Matkar,Akshay Jadhav
+</t>
+  </si>
+  <si>
+    <t>2024 4th International Conference on Pervasive Computing and Social Networking (ICPCSN)</t>
+  </si>
+  <si>
+    <t>Information and Software Technology</t>
+  </si>
+  <si>
+    <t>Xin Shen a, Xiangjuan Yao b, Dunwei Gong c,∗, Huijie Tu</t>
+  </si>
+  <si>
+    <t>repository metadata, programming languages used,
+commit history, issue tracking, and community engagement
+metrics.</t>
+  </si>
+  <si>
+    <t>The system capitalizes on various NLP
+methodologies, including lemmat ization, stemming,
+tokenizat ion, and the innovative Bidirectional Encoder
+Representations from Transformers (BERT).</t>
+  </si>
+  <si>
+    <t>vector based</t>
+  </si>
+  <si>
+    <t>By leveraging sophisticated NLP
+techniques and semantic analysis, it provides developers
+with tailored recommendations, minimizing the effort
+required to discover suitable projects to contribute to within
+the vast GitHub ecosystem. Additionally, the interactive
+web applicat ion fosters a user-friendly environment,
+encouraging collaboration and facilitating informed
+decision-making.</t>
+  </si>
+  <si>
+    <t>Additionally, integrating large language models like GPT
+(Generative Pre-trained Transformer) could further enhance
+accuracy. Large language models have shown remarkable
+performance in various NLP tasks due to their ability to
+capture complex linguistic patterns and semantics. By finetuning
+a pre-trained GPT model on specific GitHub issue
+data, we can create a more sophisticated recommendation
+system that understands the nuances of the text and provides
+more accurate suggestions.</t>
+  </si>
+  <si>
+    <t>hybrid</t>
+  </si>
+  <si>
+    <t>behaviours, social connections</t>
+  </si>
+  <si>
+    <t>programming language, timestamps of their contributions,</t>
+  </si>
+  <si>
+    <t>However, this paper
+mines the preferences of these developers and their communities from
+the programming language and profession perspective.
+some
+developers and projects often lack historical information, which brings
+greater challenges to project recommendation. Therefore, how to tackle
+the problem will be another topic to be further studied.</t>
+  </si>
+  <si>
+    <t>the proposed method obtains
+better success rate and efficiency of recommendation compared with
+comparison ones.</t>
+  </si>
+  <si>
+    <t>comments, PR</t>
+  </si>
+  <si>
+    <t>improved NSGA-II algorithm,
+The method proposed in the paper for project recommendation in a time-dependent software ecosystem involves a two-stage framework. 
+1. Initial Setup:
+- Start with the current state of developers and their projects at the initial time interval (t = 0).
+2. Change Detection:
+- For each subsequent time interval (t = 1 to T), monitor and detect changes in developer communities and projects.
+3. Recommendation Logic:
+- If neither developers nor projects have changed, retain the previous recommendations.
+- If only the projects have changed, use the existing developer community to recommend new projects.
+- If both the developer community and projects have changed, re-divide the community and update the project recommendations accordingly.
+4. Output Recommendations:
+- Upon completing the iterations over T time intervals, output the recommended developers and their associated projects.</t>
+  </si>
+  <si>
+    <t>programming preference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skill preference </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Social and behavioral preferences </t>
+  </si>
+  <si>
+    <t xml:space="preserve">comments </t>
   </si>
 </sst>
 </file>
@@ -5435,6 +5543,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5700,10 +5812,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R79"/>
+  <dimension ref="A1:R78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A72" sqref="A72"/>
+    <sheetView tabSelected="1" topLeftCell="H67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K67" sqref="K67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9242,10 +9354,119 @@
         <v>755</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="C70" t="s">
+    <row r="66" spans="1:18" ht="246.5" x14ac:dyDescent="0.35">
+      <c r="A66" s="13" t="s">
+        <v>783</v>
+      </c>
+      <c r="B66" s="13" t="s">
+        <v>800</v>
+      </c>
+      <c r="C66" t="s">
+        <v>750</v>
+      </c>
+      <c r="D66" s="13" t="s">
+        <v>789</v>
+      </c>
+      <c r="E66" s="13" t="s">
+        <v>790</v>
+      </c>
+      <c r="F66" s="13" t="s">
+        <v>791</v>
+      </c>
+      <c r="G66" s="13" t="s">
+        <v>792</v>
+      </c>
+      <c r="H66" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="I66" s="13" t="s">
+        <v>801</v>
+      </c>
+      <c r="J66" s="13" t="s">
+        <v>737</v>
+      </c>
+      <c r="K66" s="13" t="s">
+        <v>803</v>
+      </c>
+      <c r="L66" s="13" t="s">
+        <v>788</v>
+      </c>
+      <c r="M66" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="N66" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="P66" s="13" t="s">
+        <v>784</v>
+      </c>
+      <c r="Q66">
+        <v>2024</v>
+      </c>
+      <c r="R66" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A67" s="13" t="s">
+        <v>782</v>
+      </c>
+      <c r="B67" s="13" t="s">
+        <v>794</v>
+      </c>
+      <c r="C67" t="s">
+        <v>750</v>
+      </c>
+      <c r="D67" s="13" t="s">
+        <v>799</v>
+      </c>
+      <c r="E67" s="13" t="s">
+        <v>793</v>
+      </c>
+      <c r="F67" s="13" t="s">
+        <v>797</v>
+      </c>
+      <c r="G67" s="13" t="s">
+        <v>796</v>
+      </c>
+      <c r="H67" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="I67" s="13" t="s">
+        <v>802</v>
+      </c>
+      <c r="J67" s="13" t="s">
+        <v>737</v>
+      </c>
+      <c r="K67" s="13" t="s">
+        <v>798</v>
+      </c>
+      <c r="L67" s="13" t="s">
+        <v>795</v>
+      </c>
+      <c r="M67" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="N67" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="P67" t="s">
+        <v>787</v>
+      </c>
+      <c r="Q67">
+        <v>2024</v>
+      </c>
+      <c r="R67" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="C69" t="s">
         <v>706</v>
       </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A73" s="13"/>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A74" s="13"/>
@@ -9262,9 +9483,6 @@
     <row r="78" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A78" s="13"/>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A79" s="13"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
